--- a/4月/4月份运费表(4.15).xlsx
+++ b/4月/4月份运费表(4.15).xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="104">
   <si>
     <t>日期</t>
   </si>
@@ -919,11 +919,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J140"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B140" sqref="B140"/>
+      <selection pane="bottomLeft" activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="F126" s="24">
-        <f t="shared" ref="F126:F140" si="3">D126*E126</f>
+        <f t="shared" ref="F126:F141" si="3">D126*E126</f>
         <v>0</v>
       </c>
       <c r="G126" s="2" t="s">
@@ -4280,6 +4280,28 @@
         <v>20</v>
       </c>
       <c r="H140" s="24"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="6">
+        <v>43570</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D141" s="2">
+        <v>1</v>
+      </c>
+      <c r="E141" s="12">
+        <v>13</v>
+      </c>
+      <c r="F141" s="24">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H141" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I132">

--- a/4月/4月份运费表(4.15).xlsx
+++ b/4月/4月份运费表(4.15).xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="105">
   <si>
     <t>日期</t>
   </si>
@@ -411,6 +411,9 @@
   </si>
   <si>
     <t>薛小霞</t>
+  </si>
+  <si>
+    <t>李晓红</t>
   </si>
 </sst>
 </file>
@@ -919,11 +922,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E150" sqref="E150"/>
+      <selection pane="bottomLeft" activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3958,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="F126" s="24">
-        <f t="shared" ref="F126:F141" si="3">D126*E126</f>
+        <f t="shared" ref="F126:F142" si="3">D126*E126</f>
         <v>0</v>
       </c>
       <c r="G126" s="2" t="s">
@@ -4302,6 +4305,28 @@
         <v>13</v>
       </c>
       <c r="H141" s="24"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="6">
+        <v>43570</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D142" s="2">
+        <v>7</v>
+      </c>
+      <c r="E142" s="12">
+        <v>7</v>
+      </c>
+      <c r="F142" s="24">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="H142" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I132">
